--- a/GEO_upload/metadata_template.xlsx
+++ b/GEO_upload/metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbloom/Documents/IFNsorted_flu_single_cell/GEO_upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbloom/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{143136B9-E5EE-A347-844D-F0112D528194}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A705AA-1216-774C-B2DC-26A18F6EEE8D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="460" windowWidth="37240" windowHeight="26100"/>
+    <workbookView xWindow="3860" yWindow="460" windowWidth="37240" windowHeight="26100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="seq_template_v2.1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ledoux</author>
     <author>barrett</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="1" shapeId="0">
+    <comment ref="A15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K20" authorId="0" shapeId="0">
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L20" authorId="0" shapeId="0">
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M20" authorId="0" shapeId="0">
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N20" authorId="0" shapeId="0">
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="0" shapeId="0">
+    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P20" authorId="0" shapeId="0">
+    <comment ref="P20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q20" authorId="0" shapeId="0">
+    <comment ref="Q20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R20" authorId="0" shapeId="0">
+    <comment ref="R20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -399,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S20" authorId="0" shapeId="0">
+    <comment ref="S20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T20" authorId="0" shapeId="0">
+    <comment ref="T20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -431,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U20" authorId="0" shapeId="0">
+    <comment ref="U20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -447,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V20" authorId="0" shapeId="0">
+    <comment ref="V20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W20" authorId="0" shapeId="0">
+    <comment ref="W20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -479,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X20" authorId="0" shapeId="0">
+    <comment ref="X20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -495,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y20" authorId="0" shapeId="0">
+    <comment ref="Y20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z20" authorId="0" shapeId="0">
+    <comment ref="Z20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -527,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC20" authorId="0" shapeId="0">
+    <comment ref="AC20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -543,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -557,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -571,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0">
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -585,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="1" shapeId="0">
+    <comment ref="A29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -633,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0">
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
           <rPr>
@@ -653,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -673,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -693,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0" shapeId="0">
+    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -713,7 +713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0" shapeId="0">
+    <comment ref="A39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -733,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0">
+    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -748,7 +748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0">
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -763,7 +763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0" shapeId="0">
+    <comment ref="B45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -777,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0">
+    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -792,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B55" authorId="0" shapeId="0">
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
         <r>
           <rPr>
@@ -818,7 +818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0" shapeId="0">
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
       <text>
         <r>
           <rPr>
@@ -833,7 +833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D55" authorId="0" shapeId="0">
+    <comment ref="D55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
         <r>
           <rPr>
@@ -872,7 +872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0" shapeId="0">
+    <comment ref="E55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -887,7 +887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="0" shapeId="0">
+    <comment ref="F55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
         <r>
           <rPr>
@@ -901,7 +901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C75" authorId="0" shapeId="0">
+    <comment ref="C75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
         <r>
           <rPr>
@@ -915,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D75" authorId="0" shapeId="0">
+    <comment ref="D75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
           <rPr>
@@ -935,7 +935,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="124">
   <si>
     <t># This section describes the overall experiment.</t>
   </si>
@@ -1301,9 +1301,6 @@
     <t>2018-08-08_Pol_circ_report.csv</t>
   </si>
   <si>
-    <t>BAM file with PacBio CCSs</t>
-  </si>
-  <si>
     <t>CSV file with report of PacBio CCS generation</t>
   </si>
   <si>
@@ -1338,13 +1335,37 @@
   </si>
   <si>
     <t>98 nt</t>
+  </si>
+  <si>
+    <t>FASTQ file with PacBio CCSs</t>
+  </si>
+  <si>
+    <t>2017-06-08_ccs.fastq.gz</t>
+  </si>
+  <si>
+    <t>2017-12-07_ccs.fastq.gz</t>
+  </si>
+  <si>
+    <t>2018-06-22_nonPol_ccs.fastq.gz</t>
+  </si>
+  <si>
+    <t>2018-06-22_Pol-1_ccs.fastq.gz</t>
+  </si>
+  <si>
+    <t>2018-06-22_Pol-2_ccs.fastq.gz</t>
+  </si>
+  <si>
+    <t>2018-06-22_Pol_open_ccs.fastq.gz</t>
+  </si>
+  <si>
+    <t>2018-08-08_Pol_circ_ccs.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1377,20 +1398,6 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1492,8 +1499,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1521,14 +1528,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1544,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1872,14 +1879,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="14"/>
   </sheetPr>
   <dimension ref="A1:AE241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2234,13 +2241,13 @@
         <v>103</v>
       </c>
       <c r="AC21" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD21" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" s="31" t="s">
+      <c r="AE21" s="31" t="s">
         <v>108</v>
-      </c>
-      <c r="AE21" s="31" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -2521,13 +2528,13 @@
     </row>
     <row r="56" spans="1:12" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="33" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="34" customFormat="1" ht="28" x14ac:dyDescent="0.15">
@@ -2535,21 +2542,21 @@
         <v>91</v>
       </c>
       <c r="B57" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="33" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="34" customFormat="1" ht="28" x14ac:dyDescent="0.15">
@@ -2557,22 +2564,22 @@
         <v>93</v>
       </c>
       <c r="B59" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="L59" s="33"/>
     </row>
     <row r="60" spans="1:12" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="33" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K60" s="33"/>
       <c r="L60" s="33"/>
@@ -2582,10 +2589,10 @@
         <v>95</v>
       </c>
       <c r="B61" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="J61" s="33"/>
       <c r="K61" s="33"/>
@@ -2593,13 +2600,13 @@
     </row>
     <row r="62" spans="1:12" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="33" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I62" s="33"/>
       <c r="J62" s="33"/>
@@ -2611,10 +2618,10 @@
         <v>97</v>
       </c>
       <c r="B63" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="33"/>
@@ -2624,13 +2631,13 @@
     </row>
     <row r="64" spans="1:12" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="33" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
@@ -2644,10 +2651,10 @@
         <v>99</v>
       </c>
       <c r="B65" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -2659,13 +2666,13 @@
     </row>
     <row r="66" spans="1:12" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="33" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E66" s="33"/>
       <c r="F66" s="33"/>
@@ -2681,10 +2688,10 @@
         <v>101</v>
       </c>
       <c r="B67" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
@@ -2697,13 +2704,13 @@
     </row>
     <row r="68" spans="1:12" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="33" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E68" s="33"/>
       <c r="F68" s="33"/>
@@ -2719,10 +2726,10 @@
         <v>103</v>
       </c>
       <c r="B69" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
@@ -2735,16 +2742,16 @@
     </row>
     <row r="70" spans="1:12" s="34" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -2756,16 +2763,16 @@
     </row>
     <row r="71" spans="1:12" s="34" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A71" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -2777,16 +2784,16 @@
     </row>
     <row r="72" spans="1:12" s="34" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A72" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="E72" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>114</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
